--- a/Document/ScrapCollector_ProductBacklog.xlsx
+++ b/Document/ScrapCollector_ProductBacklog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="104">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -321,13 +321,31 @@
   </si>
   <si>
     <t>View account detail</t>
+  </si>
+  <si>
+    <t>Report Homeowner</t>
+  </si>
+  <si>
+    <t>Report scrap</t>
+  </si>
+  <si>
+    <t>Review Collector</t>
+  </si>
+  <si>
+    <t>View scrap report</t>
+  </si>
+  <si>
+    <t>View account report</t>
+  </si>
+  <si>
+    <t>Implement Price Recommend price feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -400,6 +418,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -608,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,6 +796,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,15 +808,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -799,21 +837,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,8 +1063,8 @@
   </sheetPr>
   <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1049,13 +1077,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1270,7 +1298,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="66">
+      <c r="A12" s="69">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1287,7 +1315,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="34" t="s">
         <v>40</v>
       </c>
@@ -1302,7 +1330,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="67"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="34" t="s">
         <v>44</v>
       </c>
@@ -1317,7 +1345,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="67"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="34" t="s">
         <v>45</v>
       </c>
@@ -1353,7 +1381,7 @@
       <c r="Z15" s="29"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="34" t="s">
         <v>46</v>
       </c>
@@ -1389,7 +1417,7 @@
       <c r="Z16" s="29"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="68"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="37" t="s">
         <v>48</v>
       </c>
@@ -1404,7 +1432,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="79">
+      <c r="A18" s="70">
         <v>12</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1421,7 +1449,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="80"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="34" t="s">
         <v>73</v>
       </c>
@@ -1436,7 +1464,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="80"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="34" t="s">
         <v>74</v>
       </c>
@@ -1451,7 +1479,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="80"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="34" t="s">
         <v>75</v>
       </c>
@@ -1466,7 +1494,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="80"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="34" t="s">
         <v>76</v>
       </c>
@@ -1481,7 +1509,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="80"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="34" t="s">
         <v>77</v>
       </c>
@@ -1496,7 +1524,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="80"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="34" t="s">
         <v>82</v>
       </c>
@@ -1511,7 +1539,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="80"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="34" t="s">
         <v>83</v>
       </c>
@@ -1526,7 +1554,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="80"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="34" t="s">
         <v>84</v>
       </c>
@@ -1541,28 +1569,44 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="21"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="21">
+        <v>3</v>
+      </c>
+      <c r="D27" s="14">
+        <v>30</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="21"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="21">
+        <v>3</v>
+      </c>
+      <c r="D28" s="14">
+        <v>30</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="81"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="15"/>
       <c r="C29" s="21"/>
       <c r="D29" s="14"/>
       <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="66">
+      <c r="A30" s="69">
         <v>13</v>
       </c>
       <c r="B30" s="41" t="s">
@@ -1600,7 +1644,7 @@
       <c r="Z30" s="29"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="67"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="15" t="s">
         <v>78</v>
       </c>
@@ -1636,7 +1680,7 @@
       <c r="Z31" s="29"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="67"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="15" t="s">
         <v>79</v>
       </c>
@@ -1672,7 +1716,7 @@
       <c r="Z32" s="29"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="78"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="15" t="s">
         <v>81</v>
       </c>
@@ -1708,7 +1752,7 @@
       <c r="Z33" s="29"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="78"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="15" t="s">
         <v>80</v>
       </c>
@@ -1744,7 +1788,7 @@
       <c r="Z34" s="29"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="78"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="15" t="s">
         <v>85</v>
       </c>
@@ -1780,7 +1824,7 @@
       <c r="Z35" s="29"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="78"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="15" t="s">
         <v>74</v>
       </c>
@@ -1816,7 +1860,7 @@
       <c r="Z36" s="29"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="78"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="15" t="s">
         <v>86</v>
       </c>
@@ -1852,15 +1896,15 @@
       <c r="Z37" s="29"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="78"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>20</v>
@@ -1888,7 +1932,7 @@
       <c r="Z38" s="29"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="78"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="15" t="s">
         <v>88</v>
       </c>
@@ -1924,7 +1968,7 @@
       <c r="Z39" s="29"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="78"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="15" t="s">
         <v>89</v>
       </c>
@@ -1960,7 +2004,7 @@
       <c r="Z40" s="29"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="78"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="15" t="s">
         <v>90</v>
       </c>
@@ -1996,11 +2040,19 @@
       <c r="Z41" s="29"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="78"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="27"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="27">
+        <v>1</v>
+      </c>
+      <c r="D42" s="14">
+        <v>10</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
@@ -2024,11 +2076,19 @@
       <c r="Z42" s="29"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="78"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="27"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="27">
+        <v>1</v>
+      </c>
+      <c r="D43" s="14">
+        <v>10</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
@@ -2052,7 +2112,7 @@
       <c r="Z43" s="29"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="68"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="15"/>
       <c r="C44" s="21"/>
       <c r="D44" s="14"/>
@@ -2080,7 +2140,7 @@
       <c r="Z44" s="29"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="66">
+      <c r="A45" s="69">
         <v>14</v>
       </c>
       <c r="B45" s="41" t="s">
@@ -2097,7 +2157,7 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="67"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="15" t="s">
         <v>91</v>
       </c>
@@ -2112,7 +2172,7 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="67"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="15" t="s">
         <v>92</v>
       </c>
@@ -2127,7 +2187,7 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="78"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="15" t="s">
         <v>93</v>
       </c>
@@ -2142,73 +2202,119 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="78"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="24"/>
+      <c r="C49" s="27">
+        <v>2</v>
+      </c>
+      <c r="D49" s="14">
+        <v>20</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="78"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="24"/>
+      <c r="C50" s="27">
+        <v>2</v>
+      </c>
+      <c r="D50" s="14">
+        <v>20</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="78"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="24"/>
+      <c r="C51" s="27">
+        <v>2</v>
+      </c>
+      <c r="D51" s="14">
+        <v>20</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="78"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="24"/>
+      <c r="C52" s="27">
+        <v>2</v>
+      </c>
+      <c r="D52" s="14">
+        <v>20</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="78"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="24"/>
+      <c r="C53" s="27">
+        <v>2</v>
+      </c>
+      <c r="D53" s="14">
+        <v>20</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="78"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="24"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="27">
+        <v>2</v>
+      </c>
+      <c r="D54" s="14">
+        <v>20</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="78"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="24"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="27">
+        <v>2</v>
+      </c>
+      <c r="D55" s="14">
+        <v>20</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="68"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="15"/>
       <c r="C56" s="27"/>
       <c r="D56" s="14"/>
       <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="69">
+      <c r="A57" s="64">
         <v>15</v>
       </c>
       <c r="B57" s="41" t="s">
@@ -2225,7 +2331,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="67"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="15" t="s">
         <v>54</v>
       </c>
@@ -2240,7 +2346,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="67"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="15" t="s">
         <v>55</v>
       </c>
@@ -2255,7 +2361,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="67"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="48" t="s">
         <v>56</v>
       </c>
@@ -2270,7 +2376,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="68"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="15" t="s">
         <v>72</v>
       </c>
@@ -2285,7 +2391,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="69">
+      <c r="A62" s="64">
         <v>16</v>
       </c>
       <c r="B62" s="41" t="s">
@@ -2302,7 +2408,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="67"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="15" t="s">
         <v>35</v>
       </c>
@@ -2317,7 +2423,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="67"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="15" t="s">
         <v>51</v>
       </c>
@@ -2332,7 +2438,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="67"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="15" t="s">
         <v>58</v>
       </c>
@@ -2347,7 +2453,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="67"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="15" t="s">
         <v>59</v>
       </c>
@@ -2362,7 +2468,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="67"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="15" t="s">
         <v>60</v>
       </c>
@@ -2372,10 +2478,12 @@
       <c r="D67" s="14">
         <v>20</v>
       </c>
-      <c r="E67" s="21"/>
+      <c r="E67" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="68"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="15" t="s">
         <v>61</v>
       </c>
@@ -2385,10 +2493,12 @@
       <c r="D68" s="14">
         <v>20</v>
       </c>
-      <c r="E68" s="21"/>
+      <c r="E68" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="69">
+      <c r="A69" s="64">
         <v>17</v>
       </c>
       <c r="B69" s="55" t="s">
@@ -2405,7 +2515,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A70" s="67"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="15" t="s">
         <v>63</v>
       </c>
@@ -2420,7 +2530,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A71" s="67"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="15" t="s">
         <v>64</v>
       </c>
@@ -2435,7 +2545,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A72" s="67"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="15" t="s">
         <v>65</v>
       </c>
@@ -2450,7 +2560,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A73" s="68"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="15" t="s">
         <v>66</v>
       </c>
@@ -2465,7 +2575,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A74" s="69">
+      <c r="A74" s="64">
         <v>18</v>
       </c>
       <c r="B74" s="55" t="s">
@@ -2482,7 +2592,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A75" s="67"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="15" t="s">
         <v>68</v>
       </c>
@@ -2497,7 +2607,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A76" s="67"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="15" t="s">
         <v>69</v>
       </c>
@@ -2512,7 +2622,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A77" s="67"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="15" t="s">
         <v>70</v>
       </c>
@@ -2527,7 +2637,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A78" s="68"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="15" t="s">
         <v>71</v>
       </c>
@@ -4064,7 +4174,7 @@
     <mergeCell ref="A45:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4173,7 +4283,7 @@
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="74" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -4190,7 +4300,7 @@
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="67"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
@@ -4205,7 +4315,7 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="15" t="s">
         <v>30</v>
       </c>
@@ -4220,7 +4330,7 @@
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="67"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
@@ -4235,7 +4345,7 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="68"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
@@ -4250,7 +4360,7 @@
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="75" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -4267,7 +4377,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="67"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="11" t="s">
         <v>41</v>
       </c>
@@ -4282,7 +4392,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="67"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="11" t="s">
         <v>42</v>
       </c>
@@ -4297,7 +4407,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="11" t="s">
         <v>43</v>
       </c>
@@ -5374,7 +5484,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="17"/>
@@ -5389,7 +5499,7 @@
       <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="67"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="17"/>
       <c r="C3" s="19"/>
       <c r="D3" s="22"/>
@@ -5402,7 +5512,7 @@
       <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="68"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="17"/>
       <c r="C4" s="19"/>
       <c r="D4" s="22"/>
@@ -5415,7 +5525,7 @@
       <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="31"/>
@@ -5430,8 +5540,8 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="19"/>
       <c r="D6" s="22"/>
       <c r="E6" s="19"/>
@@ -5443,8 +5553,8 @@
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="19"/>
       <c r="D7" s="22"/>
       <c r="E7" s="19"/>
@@ -5456,8 +5566,8 @@
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="19"/>
       <c r="D8" s="22"/>
       <c r="E8" s="19"/>
@@ -5469,8 +5579,8 @@
       <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="19"/>
       <c r="D9" s="22"/>
       <c r="E9" s="19"/>
@@ -5482,7 +5592,7 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="31"/>
       <c r="C10" s="19"/>
       <c r="D10" s="22"/>
@@ -5495,8 +5605,8 @@
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="19"/>
       <c r="D11" s="22"/>
       <c r="E11" s="19"/>
@@ -5508,8 +5618,8 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="19"/>
       <c r="D12" s="22"/>
       <c r="E12" s="19"/>
@@ -5521,8 +5631,8 @@
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="19"/>
       <c r="D13" s="22"/>
       <c r="E13" s="19"/>
@@ -5534,7 +5644,7 @@
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="68"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="31"/>
       <c r="C14" s="19"/>
       <c r="D14" s="22"/>
@@ -5547,7 +5657,7 @@
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="80" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="42"/>
@@ -5562,7 +5672,7 @@
       <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="68"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="42"/>
       <c r="C16" s="19"/>
       <c r="D16" s="22"/>
@@ -5590,7 +5700,7 @@
       <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="67"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="31"/>
       <c r="C18" s="19"/>
       <c r="D18" s="22"/>
@@ -5603,7 +5713,7 @@
       <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="67"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="31"/>
       <c r="C19" s="19"/>
       <c r="D19" s="22"/>
@@ -5616,7 +5726,7 @@
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="67"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="31"/>
       <c r="C20" s="19"/>
       <c r="D20" s="22"/>
@@ -5629,7 +5739,7 @@
       <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="31"/>
       <c r="C21" s="19"/>
       <c r="D21" s="22"/>
@@ -7350,7 +7460,7 @@
       <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="47"/>
       <c r="C3" s="43"/>
       <c r="D3" s="26"/>
@@ -7363,7 +7473,7 @@
       <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="67"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="47"/>
       <c r="C4" s="43"/>
       <c r="D4" s="26"/>
@@ -7376,7 +7486,7 @@
       <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="67"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="47"/>
       <c r="C5" s="43"/>
       <c r="D5" s="26"/>
@@ -7389,7 +7499,7 @@
       <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="67"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="47"/>
       <c r="C6" s="43"/>
       <c r="D6" s="26"/>
@@ -7402,7 +7512,7 @@
       <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="67"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="31"/>
       <c r="C7" s="19"/>
       <c r="D7" s="26"/>
@@ -7415,8 +7525,8 @@
       <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="19"/>
       <c r="D8" s="26"/>
       <c r="E8" s="19"/>
@@ -7428,8 +7538,8 @@
       <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="19"/>
       <c r="D9" s="26"/>
       <c r="E9" s="19"/>
@@ -7441,7 +7551,7 @@
       <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="31"/>
       <c r="C10" s="19"/>
       <c r="D10" s="26"/>
@@ -7454,7 +7564,7 @@
       <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="67"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="47"/>
       <c r="C11" s="19"/>
       <c r="D11" s="26"/>
@@ -7467,7 +7577,7 @@
       <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="67"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="47"/>
       <c r="C12" s="19"/>
       <c r="D12" s="26"/>
@@ -7480,7 +7590,7 @@
       <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="47"/>
       <c r="C13" s="19"/>
       <c r="D13" s="26"/>
@@ -7493,7 +7603,7 @@
       <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="77"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="59"/>
       <c r="C14" s="19"/>
       <c r="D14" s="26"/>
@@ -7506,7 +7616,7 @@
       <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="67"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="59"/>
       <c r="C15" s="19"/>
       <c r="D15" s="26"/>
@@ -7519,7 +7629,7 @@
       <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="47"/>
       <c r="C16" s="19"/>
       <c r="D16" s="26"/>
@@ -7532,7 +7642,7 @@
       <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="67"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="47"/>
       <c r="C17" s="19"/>
       <c r="D17" s="26"/>
@@ -7545,7 +7655,7 @@
       <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="67"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="47"/>
       <c r="C18" s="19"/>
       <c r="D18" s="26"/>
@@ -7558,7 +7668,7 @@
       <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="67"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="47"/>
       <c r="C19" s="19"/>
       <c r="D19" s="26"/>
@@ -7571,7 +7681,7 @@
       <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="67"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="47"/>
       <c r="C20" s="19"/>
       <c r="D20" s="26"/>
@@ -7584,7 +7694,7 @@
       <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="67"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="47"/>
       <c r="C21" s="19"/>
       <c r="D21" s="26"/>
@@ -7597,7 +7707,7 @@
       <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="67"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="47"/>
       <c r="C22" s="19"/>
       <c r="D22" s="26"/>
@@ -7610,7 +7720,7 @@
       <c r="K22" s="46"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="67"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="47"/>
       <c r="C23" s="19"/>
       <c r="D23" s="26"/>
@@ -7623,7 +7733,7 @@
       <c r="K23" s="46"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="67"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="47"/>
       <c r="C24" s="19"/>
       <c r="D24" s="26"/>
@@ -7636,7 +7746,7 @@
       <c r="K24" s="46"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="67"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="60"/>
       <c r="C25" s="19"/>
       <c r="D25" s="26"/>
@@ -7649,7 +7759,7 @@
       <c r="K25" s="46"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="67"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="47"/>
       <c r="C26" s="19"/>
       <c r="D26" s="26"/>
@@ -7662,7 +7772,7 @@
       <c r="K26" s="46"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="67"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="47"/>
       <c r="C27" s="19"/>
       <c r="D27" s="26"/>
@@ -7675,7 +7785,7 @@
       <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="67"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="47"/>
       <c r="C28" s="19"/>
       <c r="D28" s="26"/>
@@ -7688,7 +7798,7 @@
       <c r="K28" s="46"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="67"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="47"/>
       <c r="C29" s="19"/>
       <c r="D29" s="26"/>
@@ -7701,7 +7811,7 @@
       <c r="K29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="67"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="47"/>
       <c r="C30" s="19"/>
       <c r="D30" s="26"/>
@@ -7714,7 +7824,7 @@
       <c r="K30" s="46"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="67"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="47"/>
       <c r="C31" s="19"/>
       <c r="D31" s="26"/>
@@ -7727,7 +7837,7 @@
       <c r="K31" s="46"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="68"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="47"/>
       <c r="C32" s="19"/>
       <c r="D32" s="26"/>
